--- a/biology/Médecine/Classe_ATC_G01/Classe_ATC_G01.xlsx
+++ b/biology/Médecine/Classe_ATC_G01/Classe_ATC_G01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC G01, dénommée « Anti-infectieux et antiseptiques à usage gynécologique », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QG01[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique G de la classification, intitulé « Système génito-urinaire et hormones sexuelles ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC G01, dénommée « Anti-infectieux et antiseptiques à usage gynécologique », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QG01. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique G de la classification, intitulé « Système génito-urinaire et hormones sexuelles ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>G01AA Antibiotiques à usage gynécologique
-G01AA01 Nystatine
+          <t>G01AA Antibiotiques à usage gynécologique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>G01AA01 Nystatine
 G01AA02 Natamycine
 G01AA03 Amphotéricine B
 G01AA04 Candicidine (en)
@@ -529,27 +546,197 @@
 « QG01AA55 » Chloramphénicol, associations
 « QG01AA90 » Tétracycline
 « QG01AA91 » Gentamicine
-« QG01AA99 » Antibiotiques, associations
-G01AB Dérivés arsenicaux
-G01AB01 Acétarsol
-G01AC Dérivés de la quinoléïne
-G01AC01 Di-iodohydroxyquinoléïne (en)
+« QG01AA99 » Antibiotiques, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>G01A Anti-infectieux et antiseptiques non associés aux corticoïdes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>G01AB Dérivés arsenicaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>G01AB01 Acétarsol</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>G01A Anti-infectieux et antiseptiques non associés aux corticoïdes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>G01AC Dérivés de la quinoléïne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>G01AC01 Di-iodohydroxyquinoléïne (en)
 G01AC02 Clioquinol (en)
 G01AC03 Chlorquinaldol (en)
 G01AC05 Déqualinium (en)
 G01AC06 Broxyquinoline (en)
 G01AC30 Oxyquinoline
 « QG01AC90 » Chlorure d'acriflavinium (en)
-« QG01AC99 » Associations
-G01AD Acides organiques
-G01AD01 Acide lactique
+« QG01AC99 » Associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>G01A Anti-infectieux et antiseptiques non associés aux corticoïdes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>G01AD Acides organiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>G01AD01 Acide lactique
 G01AD02 Acide acétique
-G01AD03 Acide ascorbique
-G01AE Sulfamides
-G01AE01 Sulfatolamide (en)
-G01AE10 Associations de sulfamides
-G01AF Dérivés imidazolés
-G01AF01 Métronidazole
+G01AD03 Acide ascorbique</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>G01A Anti-infectieux et antiseptiques non associés aux corticoïdes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>G01AE Sulfamides</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>G01AE01 Sulfatolamide (en)
+G01AE10 Associations de sulfamides</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>G01A Anti-infectieux et antiseptiques non associés aux corticoïdes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>G01AF Dérivés imidazolés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>G01AF01 Métronidazole
 G01AF02 Clotrimazole
 G01AF04 Miconazole
 G01AF05 Éconazole
@@ -565,11 +752,79 @@
 G01AF17 Oxiconazole
 G01AF18 Flutrimazole (en)
 G01AF19 Sertaconazole
-G01AF20 Associations de dérivés imidazolés
-G01AG Dérivés triazolés
-G01AG02 Terconazole (en)
-G01AX Autres anti-infectieux et antiseptiques
-G01AX01 Clodantoïne (en)
+G01AF20 Associations de dérivés imidazolés</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>G01A Anti-infectieux et antiseptiques non associés aux corticoïdes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>G01AG Dérivés triazolés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>G01AG02 Terconazole (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>G01A Anti-infectieux et antiseptiques non associés aux corticoïdes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>G01AX Autres anti-infectieux et antiseptiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>G01AX01 Clodantoïne (en)
 G01AX02 Inosine
 G01AX03 Policrésulène (en)
 G01AX05 Nifuratel (en)
@@ -587,42 +842,183 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_G01</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>G01B Anti-infectieux et antiseptiques en association aux corticoïdes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>G01BA Antibiotiques et corticoïdes
-Classe vide.
-G01BC Dérivés de la quinoléïne et corticoïdes
-Classe vide.
-G01BD Antiseptiques et corticoïdes
-Classe vide.
-G01BE Sulfamides et corticoïdes
-Classe vide.
-G01BF Dérivés imidazolés et corticoïdes
-Classe vide.</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>G01BA Antibiotiques et corticoïdes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>G01B Anti-infectieux et antiseptiques en association aux corticoïdes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>G01BC Dérivés de la quinoléïne et corticoïdes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>G01B Anti-infectieux et antiseptiques en association aux corticoïdes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>G01BD Antiseptiques et corticoïdes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>G01B Anti-infectieux et antiseptiques en association aux corticoïdes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>G01BE Sulfamides et corticoïdes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>G01B Anti-infectieux et antiseptiques en association aux corticoïdes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>G01BF Dérivés imidazolés et corticoïdes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Classe vide.</t>
         </is>
       </c>
     </row>
